--- a/VT_Model_SUP_V01.xlsx
+++ b/VT_Model_SUP_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/Prywatny238/Shared Documents/General/Wymiana_Danych/TIMES_STUDENTS_MID/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barte\Downloads\TIMES_STUDENTS_MID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{48132F81-F191-4F1E-8083-16E473A2E287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB77C5DF-F06F-4F30-A0A0-6C111DEC817B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37727B46-6F4C-4721-AA02-DFD65BB824C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18696" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -2042,11 +2042,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
     <cellStyle name="Normal_MIN" xfId="2" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
     <cellStyle name="Normal_PRC" xfId="3" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Procentowy" xfId="4" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3208,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:AK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3665,7 +3665,9 @@
       <c r="E10" s="15">
         <v>28</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="14">
+        <v>42</v>
+      </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="J10" s="91"/>
@@ -3741,7 +3743,9 @@
       <c r="E11" s="22">
         <v>30</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="21">
+        <v>160.33333333333334</v>
+      </c>
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="J11" s="91"/>
@@ -4169,6 +4173,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -4363,27 +4387,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAC355B7-8157-4E07-97CC-79D51A4B7186}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4400,23 +4423,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
-    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>